--- a/pred_ohlcv/54_21/2020-01-21 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 XSR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3489938.519290599</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-3489938.519290599</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3202803.199290599</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2863719.441190599</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2864350.859690599</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2549868.486390599</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2548903.095390599</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1729260.0632906</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2521961.7459906</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3176716.2691906</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3471142.324990599</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-3138277.0197906</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-4096226.4244906</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-4096226.4244906</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-4355332.3076906</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-4355332.3076906</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-4355242.2180906</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-4355242.2180906</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-4175958.7511906</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>680936.8951093997</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>681736.8951093997</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1067558.6756094</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1185686.733509399</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1187149.835109399</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1613719.723309399</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1613719.723309399</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>2107330.928409399</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2597928.717958615</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2597928.717958615</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2419518.286658615</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2789662.567858615</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2792084.567858615</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2791680.190658615</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2550884.289258615</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2550594.095158615</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2193979.744958615</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2193979.744958615</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1968916.419958615</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1968916.419958615</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1657669.702358615</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1683070.935158615</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1683070.935158615</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2070779.163258615</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1883963.047158615</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2055648.660658615</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>2485429.984958615</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>2485429.984958615</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2150351.194058615</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1723871.579658615</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1723871.579658615</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1533099.571158615</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1533099.571158615</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1532055.872458615</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1496796.870858615</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1169442.266358615</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1169442.266358615</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>985697.8232586153</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3120255.593658615</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3120079.593658615</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>3368418.783658615</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>3435770.189658615</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>3877958.996358615</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>3877958.996358615</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>3877958.996358615</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>3500346.576558615</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>3500346.576558615</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>3459436.149258615</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>3746698.414458615</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>3300815.715258615</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>3300903.715258615</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>3289201.670558615</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>3299201.670558615</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>2932443.934958614</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3108490.846411996</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>3138544.400543807</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-2254880.644891848</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-2254880.644891848</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-2573206.898991848</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-2562789.358091848</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1847777.22505851</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1728420.50105851</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1728420.50105851</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-2903405.57652517</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-2661683.21442517</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-2662225.21442517</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-2389997.22342517</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1971599.951356981</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>150305.9720157036</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>150305.9720157036</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>506973.2342157036</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>506712.5908157036</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>506538.8202157036</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>309054.9300157037</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>309142.9300157037</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>309054.9300157037</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-135890.0994842963</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-135890.0994842963</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-127649.2616842963</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-340838.6161842963</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>163731.2486157037</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>202207.6145157037</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-151521.9226842964</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>207735.3793157037</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-24102.75028429631</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-24549.91288429631</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-299034.8743842963</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-361373.6837842963</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-373823.0740842962</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-351285.6836842963</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-907027.4719842963</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-600880.7616842964</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>194154.4953157036</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>195436.0991157036</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>503767.1374157036</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>503217.1145157036</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>544048.0176157036</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>484048.0176157036</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>484136.0176157036</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>69835.58301570365</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>69923.58301570365</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-113356.8083842963</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-113356.8083842963</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-113444.8083842963</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-442492.4604842963</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-442316.4604842963</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-442316.4604842963</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-442404.4604842963</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-848802.5039842963</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-852568.6299842964</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1018527.826284296</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1016813.081784296</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1016901.081784296</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1304560.130284296</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-1023731.270684296</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-1024734.609284296</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-1024734.609284296</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-1465394.684084296</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-1964275.015084296</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-2124557.735084296</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-1362423.682984296</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-1328371.786584296</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-1328371.786584296</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-1491644.648084296</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-1491913.174184296</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-1770281.701984296</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-2027116.373784296</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-2027116.373784296</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-2382774.378384296</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-2382946.307484296</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-2195282.239284296</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-2264256.847784296</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-2264256.847784296</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-2023864.868284296</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-2343625.116184296</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-1979296.084884296</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-1610021.212384296</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-1991749.955384296</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-2326594.720484296</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-2325094.720484296</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-2481955.905684296</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-2532717.384584296</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-2532717.384584296</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-2879030.197284296</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-4844311.959081816</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-4844221.959081816</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-7387538.509481815</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-7784566.649714017</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-7524992.386514017</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-7525513.386514017</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-7525513.386514017</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-7371188.190514017</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-7031824.505714017</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-7031736.505714017</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-7442418.612614017</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-8459034.993414018</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 XSR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-3202803.199290599</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1729260.0632906</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2521961.7459906</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>680936.8951093997</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>681736.8951093997</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1067558.6756094</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1185686.733509399</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1187149.835109399</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1613719.723309399</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>2107330.928409399</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2155860.303709399</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2191425.44307035</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2368152.82747035</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2800878.161758615</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2597928.717958615</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2597928.717958615</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2419518.286658615</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2789662.567858615</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2792084.567858615</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2791680.190658615</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2550884.289258615</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2550594.095158615</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2193979.744958615</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2193979.744958615</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1968916.419958615</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1968916.419958615</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1657669.702358615</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1683070.935158615</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1683070.935158615</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2070779.163258615</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1883963.047158615</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2055648.660658615</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>2485429.984958615</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>2485429.984958615</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>2485429.984958615</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2150351.194058615</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1723871.579658615</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1723871.579658615</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1533099.571158615</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1533099.571158615</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1532055.872458615</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3120255.593658615</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3120079.593658615</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>3368418.783658615</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>3435770.189658615</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>3877958.996358615</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>3877958.996358615</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>3877958.996358615</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>3500346.576558615</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>3500346.576558615</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>3459436.149258615</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>3746698.414458615</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>3300815.715258615</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>3300903.715258615</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>3289201.670558615</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>3299201.670558615</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>2932443.934958614</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3108490.846411996</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>3138544.400543807</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-2254880.644891848</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-2254880.644891848</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-2573206.898991848</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-2562789.358091848</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1847777.22505851</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1728420.50105851</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1728420.50105851</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-2903405.57652517</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-2661683.21442517</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-2662225.21442517</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-2389997.22342517</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1971599.951356981</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>126259.9684157036</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>150305.9720157036</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>150305.9720157036</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>506973.2342157036</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>506712.5908157036</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>506538.8202157036</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>309054.9300157037</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>309142.9300157037</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>309054.9300157037</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-135890.0994842963</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-135890.0994842963</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-127649.2616842963</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-340838.6161842963</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>163731.2486157037</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>202207.6145157037</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-151521.9226842964</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>207735.3793157037</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-24102.75028429631</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-24549.91288429631</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-299034.8743842963</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-361373.6837842963</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-373823.0740842962</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-351285.6836842963</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-907027.4719842963</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-600880.7616842964</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>194154.4953157036</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>195436.0991157036</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>503767.1374157036</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>503217.1145157036</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>544048.0176157036</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>484048.0176157036</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>484136.0176157036</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>69835.58301570365</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>69923.58301570365</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-113356.8083842963</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-113356.8083842963</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-113444.8083842963</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-442492.4604842963</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-442316.4604842963</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-442316.4604842963</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-442404.4604842963</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-848802.5039842963</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-852568.6299842964</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1018527.826284296</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1017760.264284296</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1016813.081784296</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1016813.081784296</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1016901.081784296</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1304560.130284296</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1023819.270684296</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-1023731.270684296</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-1023731.270684296</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-1024734.609284296</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-1024734.609284296</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-1024206.609284296</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1024294.609284296</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-1465394.684084296</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-2175110.008384296</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-1362423.682984296</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-1362423.682984296</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-1328371.786584296</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-1328371.786584296</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-1491644.648084296</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-1491913.174184296</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-1770281.701984296</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-2027116.373784296</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-2027116.373784296</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-2382774.378384296</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-2382946.307484296</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-2195282.239284296</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-2264256.847784296</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-2264256.847784296</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-2264042.279984296</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-2023864.868284296</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-2023864.868284296</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-2343625.116184296</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-1991749.955384296</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-2326594.720484296</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-2325094.720484296</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-2481955.905684296</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-2532717.384584296</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-2532717.384584296</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-2879030.197284296</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-2879030.197284296</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-2968324.300984296</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-4844311.959081816</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-4844221.959081816</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-7387538.509481815</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-7784566.649714017</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-7524992.386514017</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-7525513.386514017</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-7525513.386514017</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-7371188.190514017</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-7031824.505714017</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-7031736.505714017</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-7442418.612614017</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-8184871.110914018</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-7870500.408114018</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-8211354.911514018</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-8210726.093514018</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-8210120.855914018</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-8040475.499914018</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-8040808.499914018</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-8039304.534314019</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-8198798.951614019</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-8198798.951614019</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-8299213.785314019</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-8299213.785314019</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-8459034.993414018</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-8179078.591914019</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-7760165.594614019</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-7454398.301814019</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-7605467.844214018</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-7605143.849914018</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-7664148.465514018</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-7476157.448814019</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-7905074.098814019</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-7510465.474914019</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-7510380.562614019</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-7835369.433614019</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-7488870.94991402</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-7488870.94991402</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-7187058.75641402</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-6841888.145814019</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-6841888.145814019</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-6906739.115014019</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-6606603.501514019</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-6960103.052514019</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-6756600.509714019</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-7037790.737914019</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-7037790.737914019</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
